--- a/OneClick Hotel/KIME ONECLICK.xlsx
+++ b/OneClick Hotel/KIME ONECLICK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D8E15-2A9F-472A-B10D-C5F227C49FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B382057F-9778-4B62-8927-3258FFB3FFB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC250D50-A06C-4A87-B1B4-90D38419DE40}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <r>
       <t>N</t>
@@ -112,6 +112,72 @@
   <si>
     <t>SDC002800324/7451</t>
   </si>
+  <si>
+    <t>SDC002800324/7387</t>
+  </si>
+  <si>
+    <t>SDC002800324/7476</t>
+  </si>
+  <si>
+    <t>SDC002800324/7512</t>
+  </si>
+  <si>
+    <t>SDC002800324/7520</t>
+  </si>
+  <si>
+    <t>SDC002800324/7531</t>
+  </si>
+  <si>
+    <t>SDC002800324/7530</t>
+  </si>
+  <si>
+    <t>SDC002800324/7564</t>
+  </si>
+  <si>
+    <t>SDC002800324/7606</t>
+  </si>
+  <si>
+    <t>SDC002800324/7616</t>
+  </si>
+  <si>
+    <t>SDC002800324/7640</t>
+  </si>
+  <si>
+    <t>SDC002800324/7648</t>
+  </si>
+  <si>
+    <t>NTAGO YISHYUYE</t>
+  </si>
+  <si>
+    <t>SDC002800324/7674</t>
+  </si>
+  <si>
+    <t>SDC002800324/7699</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>SDC002800324/7736</t>
+  </si>
+  <si>
+    <t>SDC002800324/7742</t>
+  </si>
+  <si>
+    <t>SDC002800324/7751</t>
+  </si>
+  <si>
+    <t>SDC002800324/7752</t>
+  </si>
+  <si>
+    <t>SDC002800324/7753</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,14 +196,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -185,6 +243,110 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -195,50 +357,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -250,9 +369,194 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -263,23 +567,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,52 +587,157 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,334 +1054,737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3D021A-2AC3-4F79-AD70-48B299B62073}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
-    <col min="5" max="5" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="H1" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="11">
         <v>14407</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>44602</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="33">
         <f>D7+D6+D5+D4+D3+D2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>29385</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <v>44608</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="F3" s="34"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>7600</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <v>44617</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="F4" s="34"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>15106</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <v>44618</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="F5" s="34"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>29262.5</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>44623</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="F6" s="34"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="16">
         <v>12500</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="17">
         <v>44620</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="11">
         <v>154394</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>44606</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="39">
         <f>D12+D11+D10+D9+D8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="42">
         <v>44635</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="H8" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>55344</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>44614</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="F9" s="40"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>123660</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>44621</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="F10" s="40"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="56"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>49000</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <v>44627</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="F11" s="40"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="16">
         <v>187380</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="17">
         <v>44629</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="F12" s="41"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="19">
         <v>41400</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="20">
         <v>44635</v>
       </c>
-      <c r="F13" s="21">
-        <f>D15+D14+D13</f>
-        <v>315000</v>
-      </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="F13" s="39">
+        <f>D16+D15+D14+D13</f>
+        <v>350480</v>
+      </c>
+      <c r="G13" s="42">
+        <v>44656</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>133400</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="21">
         <v>44648</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="F14" s="40"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>140200</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="21">
         <v>44648</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16">
+        <v>35480</v>
+      </c>
+      <c r="E16" s="22">
+        <v>44641</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="57"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="19">
+        <v>103900</v>
+      </c>
+      <c r="E17" s="23">
+        <v>44651</v>
+      </c>
+      <c r="F17" s="39">
+        <f>D26+D25+D24+D23+D22+D21+D20+D19+D18+D17+D27+D28</f>
+        <v>968300</v>
+      </c>
+      <c r="G17" s="52">
+        <v>44681</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="24">
+        <v>109700</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44655</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44656</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44657</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E21" s="7">
+        <v>44657</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="56"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3">
+        <v>70650</v>
+      </c>
+      <c r="E22" s="7">
+        <v>44662</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E23" s="7">
+        <v>44667</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3">
+        <v>103550</v>
+      </c>
+      <c r="E24" s="7">
+        <v>44669</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E25" s="7">
+        <v>44671</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="27">
+        <v>18400</v>
+      </c>
+      <c r="E26" s="28">
+        <v>44672</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="56"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E27" s="7">
+        <v>44676</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="27">
+        <v>63500</v>
+      </c>
+      <c r="E28" s="28">
+        <v>44679</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="57"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E29" s="7">
+        <v>44683</v>
+      </c>
+      <c r="F29" s="39">
+        <f>D33+D32+D31+D30+D29</f>
+        <v>282150</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="55"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E30" s="7">
+        <v>44684</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3">
+        <v>91950</v>
+      </c>
+      <c r="E31" s="7">
+        <v>44686</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E32" s="7">
+        <v>44686</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E33" s="7">
+        <v>44686</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G2:H7"/>
+    <mergeCell ref="F17:F28"/>
+    <mergeCell ref="G17:G28"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="H17:H28"/>
     <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G8:G12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OneClick Hotel/KIME ONECLICK.xlsx
+++ b/OneClick Hotel/KIME ONECLICK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B382057F-9778-4B62-8927-3258FFB3FFB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6E91E1-2F65-4B32-8F92-6B457726A3E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC250D50-A06C-4A87-B1B4-90D38419DE40}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <r>
       <t>N</t>
@@ -146,9 +146,6 @@
     <t>SDC002800324/7648</t>
   </si>
   <si>
-    <t>NTAGO YISHYUYE</t>
-  </si>
-  <si>
     <t>SDC002800324/7674</t>
   </si>
   <si>
@@ -177,6 +174,48 @@
   </si>
   <si>
     <t>SDC002800324/7753</t>
+  </si>
+  <si>
+    <t>SDC002800324/7796</t>
+  </si>
+  <si>
+    <t>SDC002800324/7833</t>
+  </si>
+  <si>
+    <t>SDC002800324/7874</t>
+  </si>
+  <si>
+    <t>SDC002800324/7911</t>
+  </si>
+  <si>
+    <t>SDC002800324/7945</t>
+  </si>
+  <si>
+    <t>SDC002800324/7977</t>
+  </si>
+  <si>
+    <t>SDC002800324/8006</t>
+  </si>
+  <si>
+    <t>SDC002800324/8033</t>
+  </si>
+  <si>
+    <t>SDC002800324/8048</t>
+  </si>
+  <si>
+    <t>SDC002800324/8056</t>
+  </si>
+  <si>
+    <t>SDC002800324/8055</t>
+  </si>
+  <si>
+    <t>SDC002800324/8093</t>
+  </si>
+  <si>
+    <t>SDC002800214/8133</t>
+  </si>
+  <si>
+    <t>SDC002800324/8164</t>
   </si>
 </sst>
 </file>
@@ -216,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -563,11 +602,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -665,6 +769,99 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,22 +871,13 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,45 +889,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3D021A-2AC3-4F79-AD70-48B299B62073}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,8 +1217,8 @@
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -1082,20 +1234,20 @@
       <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,20 +1260,20 @@
       <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
+        <v>44602</v>
+      </c>
+      <c r="E2" s="11">
         <v>14407</v>
       </c>
-      <c r="E2" s="12">
-        <v>44602</v>
-      </c>
-      <c r="F2" s="33">
-        <f>D7+D6+D5+D4+D3+D2</f>
+      <c r="F2" s="66">
+        <f>E7+E6+E5+E4+E3+E2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1133,15 +1285,15 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
+        <v>44608</v>
+      </c>
+      <c r="E3" s="3">
         <v>29385</v>
       </c>
-      <c r="E3" s="7">
-        <v>44608</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="37"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1153,15 +1305,15 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
+        <v>44617</v>
+      </c>
+      <c r="E4" s="3">
         <v>7600</v>
       </c>
-      <c r="E4" s="7">
-        <v>44617</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="37"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1173,15 +1325,15 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
+        <v>44618</v>
+      </c>
+      <c r="E5" s="3">
         <v>15106</v>
       </c>
-      <c r="E5" s="7">
-        <v>44618</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -1193,15 +1345,15 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
+        <v>44623</v>
+      </c>
+      <c r="E6" s="3">
         <v>29262.5</v>
       </c>
-      <c r="E6" s="7">
-        <v>44623</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
@@ -1213,15 +1365,15 @@
       <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="16">
         <v>12500</v>
       </c>
-      <c r="E7" s="17">
-        <v>44620</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -1233,21 +1385,21 @@
       <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
+        <v>44606</v>
+      </c>
+      <c r="E8" s="11">
         <v>154394</v>
       </c>
-      <c r="E8" s="12">
-        <v>44606</v>
-      </c>
-      <c r="F8" s="39">
-        <f>D12+D11+D10+D9+D8</f>
+      <c r="F8" s="45">
+        <f>E12+E11+E10+E9+E8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="69">
         <v>44635</v>
       </c>
-      <c r="H8" s="55" t="s">
-        <v>38</v>
+      <c r="H8" s="63" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,15 +1412,15 @@
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
+        <v>44614</v>
+      </c>
+      <c r="E9" s="3">
         <v>55344</v>
       </c>
-      <c r="E9" s="7">
-        <v>44614</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="56"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1280,15 +1432,15 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
+        <v>44621</v>
+      </c>
+      <c r="E10" s="3">
         <v>123660</v>
       </c>
-      <c r="E10" s="7">
-        <v>44621</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="56"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1300,15 +1452,15 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
+        <v>44627</v>
+      </c>
+      <c r="E11" s="3">
         <v>49000</v>
       </c>
-      <c r="E11" s="7">
-        <v>44627</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="56"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
@@ -1320,15 +1472,15 @@
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
+        <v>44629</v>
+      </c>
+      <c r="E12" s="16">
         <v>187380</v>
       </c>
-      <c r="E12" s="17">
-        <v>44629</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="57"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -1340,21 +1492,21 @@
       <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="20">
+        <v>44635</v>
+      </c>
+      <c r="E13" s="19">
         <v>41400</v>
       </c>
-      <c r="E13" s="20">
-        <v>44635</v>
-      </c>
-      <c r="F13" s="39">
-        <f>D16+D15+D14+D13</f>
+      <c r="F13" s="45">
+        <f>E16+E15+E14+E13</f>
         <v>350480</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="72">
         <v>44656</v>
       </c>
-      <c r="H13" s="55" t="s">
-        <v>38</v>
+      <c r="H13" s="63" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,15 +1519,15 @@
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="21">
+        <v>44648</v>
+      </c>
+      <c r="E14" s="3">
         <v>133400</v>
       </c>
-      <c r="E14" s="21">
-        <v>44648</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="56"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -1387,15 +1539,15 @@
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="21">
+        <v>44648</v>
+      </c>
+      <c r="E15" s="3">
         <v>140200</v>
       </c>
-      <c r="E15" s="21">
-        <v>44648</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="56"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
@@ -1407,15 +1559,15 @@
       <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="22">
+        <v>44641</v>
+      </c>
+      <c r="E16" s="16">
         <v>35480</v>
       </c>
-      <c r="E16" s="22">
-        <v>44641</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="57"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -1427,21 +1579,21 @@
       <c r="C17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="23">
+        <v>44651</v>
+      </c>
+      <c r="E17" s="19">
         <v>103900</v>
       </c>
-      <c r="E17" s="23">
-        <v>44651</v>
-      </c>
-      <c r="F17" s="39">
-        <f>D26+D25+D24+D23+D22+D21+D20+D19+D18+D17+D27+D28</f>
+      <c r="F17" s="45">
+        <f>E26+E25+E24+E23+E22+E21+E20+E19+E18+E17+E27+E28</f>
         <v>968300</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="60">
         <v>44681</v>
       </c>
-      <c r="H17" s="55" t="s">
-        <v>39</v>
+      <c r="H17" s="63" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1454,15 +1606,15 @@
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="7">
+        <v>44655</v>
+      </c>
+      <c r="E18" s="24">
         <v>109700</v>
       </c>
-      <c r="E18" s="7">
-        <v>44655</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="56"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -1474,15 +1626,15 @@
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
+        <v>44656</v>
+      </c>
+      <c r="E19" s="3">
         <v>24400</v>
       </c>
-      <c r="E19" s="7">
-        <v>44656</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="56"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -1494,15 +1646,15 @@
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
+        <v>44657</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="7">
-        <v>44657</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="56"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="64"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1514,15 +1666,15 @@
       <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
+        <v>44657</v>
+      </c>
+      <c r="E21" s="3">
         <v>47700</v>
       </c>
-      <c r="E21" s="7">
-        <v>44657</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="56"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -1534,15 +1686,15 @@
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
+        <v>44662</v>
+      </c>
+      <c r="E22" s="3">
         <v>70650</v>
       </c>
-      <c r="E22" s="7">
-        <v>44662</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="56"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="64"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -1554,15 +1706,15 @@
       <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
+        <v>44667</v>
+      </c>
+      <c r="E23" s="3">
         <v>89000</v>
       </c>
-      <c r="E23" s="7">
-        <v>44667</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="56"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -1574,15 +1726,15 @@
       <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
+        <v>44669</v>
+      </c>
+      <c r="E24" s="3">
         <v>103550</v>
       </c>
-      <c r="E24" s="7">
-        <v>44669</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="56"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1594,15 +1746,15 @@
       <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
+        <v>44671</v>
+      </c>
+      <c r="E25" s="3">
         <v>112500</v>
       </c>
-      <c r="E25" s="7">
-        <v>44671</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="56"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
@@ -1614,15 +1766,15 @@
       <c r="C26" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="28">
+        <v>44672</v>
+      </c>
+      <c r="E26" s="27">
         <v>18400</v>
       </c>
-      <c r="E26" s="28">
-        <v>44672</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="56"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -1632,62 +1784,60 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="7">
+        <v>44676</v>
+      </c>
+      <c r="E27" s="3">
+        <v>214000</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="64"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="3">
-        <v>214000</v>
-      </c>
-      <c r="E27" s="7">
-        <v>44676</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
-        <v>27</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="27">
+      <c r="D28" s="17">
+        <v>44679</v>
+      </c>
+      <c r="E28" s="16">
         <v>63500</v>
       </c>
-      <c r="E28" s="28">
-        <v>44679</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="57"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="35">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="41">
+        <v>44683</v>
+      </c>
+      <c r="E29" s="42">
         <v>87700</v>
       </c>
-      <c r="E29" s="7">
-        <v>44683</v>
-      </c>
-      <c r="F29" s="39">
-        <f>D33+D32+D31+D30+D29</f>
-        <v>282150</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="55"/>
+      <c r="F29" s="45">
+        <f>E29+E30+E31+E32+E33+E35+E34+E36+E37+E38+E39+E40+E41+E42+E43+E44+E45+E46+E47</f>
+        <v>1806927</v>
+      </c>
+      <c r="G29" s="48"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -1697,17 +1847,17 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="3">
+        <v>40</v>
+      </c>
+      <c r="D30" s="39">
+        <v>44684</v>
+      </c>
+      <c r="E30" s="43">
         <v>54000</v>
       </c>
-      <c r="E30" s="7">
-        <v>44684</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="56"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
@@ -1717,17 +1867,17 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="3">
+        <v>41</v>
+      </c>
+      <c r="D31" s="39">
+        <v>44686</v>
+      </c>
+      <c r="E31" s="43">
         <v>91950</v>
       </c>
-      <c r="E31" s="7">
-        <v>44686</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="56"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
@@ -1737,19 +1887,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="3">
+        <v>42</v>
+      </c>
+      <c r="D32" s="39">
+        <v>44686</v>
+      </c>
+      <c r="E32" s="43">
         <v>21000</v>
       </c>
-      <c r="E32" s="7">
-        <v>44686</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="56"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="46"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1757,23 +1907,301 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="39">
+        <v>44686</v>
+      </c>
+      <c r="E33" s="43">
+        <v>27500</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="3">
-        <v>27500</v>
-      </c>
-      <c r="E33" s="7">
-        <v>44686</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="57"/>
+      <c r="D34" s="40">
+        <v>44690</v>
+      </c>
+      <c r="E34" s="44">
+        <v>131000</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="40">
+        <v>44693</v>
+      </c>
+      <c r="E35" s="44">
+        <v>137000</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="52"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="39">
+        <v>44697</v>
+      </c>
+      <c r="E36" s="43">
+        <v>215777</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="52"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="39">
+        <v>44700</v>
+      </c>
+      <c r="E37" s="43">
+        <v>83000</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="52"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="39">
+        <v>44704</v>
+      </c>
+      <c r="E38" s="43">
+        <v>67400</v>
+      </c>
+      <c r="F38" s="46"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="52"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="40">
+        <v>44707</v>
+      </c>
+      <c r="E39" s="44">
+        <v>23000</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="52"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="39">
+        <v>44711</v>
+      </c>
+      <c r="E40" s="44">
+        <v>8000</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="39">
+        <v>44714</v>
+      </c>
+      <c r="E41" s="43">
+        <v>77200</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="39">
+        <v>44715</v>
+      </c>
+      <c r="E42" s="43">
+        <v>22500</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="52"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="39">
+        <v>44716</v>
+      </c>
+      <c r="E43" s="43">
+        <v>48000</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="52"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="39">
+        <v>44716</v>
+      </c>
+      <c r="E44" s="43">
+        <v>116000</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="52"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="37">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="39">
+        <v>44779</v>
+      </c>
+      <c r="E45" s="43">
+        <v>185500</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="52"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="39">
+        <v>44725</v>
+      </c>
+      <c r="E46" s="43">
+        <v>113000</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="52"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="76">
+        <v>44728</v>
+      </c>
+      <c r="E47" s="77">
+        <v>297400</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="H29:H47"/>
     <mergeCell ref="G2:H7"/>
     <mergeCell ref="F17:F28"/>
     <mergeCell ref="G17:G28"/>
@@ -1785,6 +2213,8 @@
     <mergeCell ref="G8:G12"/>
     <mergeCell ref="F13:F16"/>
     <mergeCell ref="G13:G16"/>
+    <mergeCell ref="F29:F47"/>
+    <mergeCell ref="G29:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OneClick Hotel/KIME ONECLICK.xlsx
+++ b/OneClick Hotel/KIME ONECLICK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6E91E1-2F65-4B32-8F92-6B457726A3E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D28571-1D61-4134-AFF1-8D0CB8C5FA5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC250D50-A06C-4A87-B1B4-90D38419DE40}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <r>
       <t>N</t>
@@ -216,6 +216,30 @@
   </si>
   <si>
     <t>SDC002800324/8164</t>
+  </si>
+  <si>
+    <t>SDC002800324/8224</t>
+  </si>
+  <si>
+    <t>SDC002800324/8222</t>
+  </si>
+  <si>
+    <t>SDC002800324/8289</t>
+  </si>
+  <si>
+    <t>SDC002800324/8304</t>
+  </si>
+  <si>
+    <t>SDC002800324/8434</t>
+  </si>
+  <si>
+    <t>SDC002800324/8428</t>
+  </si>
+  <si>
+    <t>SDC002800324/8440</t>
+  </si>
+  <si>
+    <t>SDC002800324/8438</t>
   </si>
 </sst>
 </file>
@@ -671,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -799,6 +823,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,6 +859,51 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,81 +913,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3D021A-2AC3-4F79-AD70-48B299B62073}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,14 +1293,14 @@
       <c r="E2" s="11">
         <v>14407</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="63">
         <f>E7+E6+E5+E4+E3+E2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="55"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1291,9 +1318,9 @@
       <c r="E3" s="3">
         <v>29385</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1311,9 +1338,9 @@
       <c r="E4" s="3">
         <v>7600</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1331,9 +1358,9 @@
       <c r="E5" s="3">
         <v>15106</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -1351,9 +1378,9 @@
       <c r="E6" s="3">
         <v>29262.5</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
@@ -1371,9 +1398,9 @@
       <c r="E7" s="16">
         <v>12500</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -1391,14 +1418,14 @@
       <c r="E8" s="11">
         <v>154394</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="54">
         <f>E12+E11+E10+E9+E8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="66">
         <v>44635</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="60" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1418,9 +1445,9 @@
       <c r="E9" s="3">
         <v>55344</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="64"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1438,9 +1465,9 @@
       <c r="E10" s="3">
         <v>123660</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="64"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1458,9 +1485,9 @@
       <c r="E11" s="3">
         <v>49000</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="64"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
@@ -1478,9 +1505,9 @@
       <c r="E12" s="16">
         <v>187380</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="65"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -1498,14 +1525,14 @@
       <c r="E13" s="19">
         <v>41400</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="54">
         <f>E16+E15+E14+E13</f>
         <v>350480</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="69">
         <v>44656</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="60" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1525,9 +1552,9 @@
       <c r="E14" s="3">
         <v>133400</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="64"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -1545,9 +1572,9 @@
       <c r="E15" s="3">
         <v>140200</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="64"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
@@ -1565,9 +1592,9 @@
       <c r="E16" s="16">
         <v>35480</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="65"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -1585,14 +1612,14 @@
       <c r="E17" s="19">
         <v>103900</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="54">
         <f>E26+E25+E24+E23+E22+E21+E20+E19+E18+E17+E27+E28</f>
         <v>968300</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="57">
         <v>44681</v>
       </c>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="60" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1612,9 +1639,9 @@
       <c r="E18" s="24">
         <v>109700</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="64"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -1632,9 +1659,9 @@
       <c r="E19" s="3">
         <v>24400</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="64"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -1652,9 +1679,9 @@
       <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="64"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1672,9 +1699,9 @@
       <c r="E21" s="3">
         <v>47700</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="64"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -1692,9 +1719,9 @@
       <c r="E22" s="3">
         <v>70650</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="64"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -1712,9 +1739,9 @@
       <c r="E23" s="3">
         <v>89000</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="64"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -1732,9 +1759,9 @@
       <c r="E24" s="3">
         <v>103550</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="64"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1752,9 +1779,9 @@
       <c r="E25" s="3">
         <v>112500</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="64"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
@@ -1772,9 +1799,9 @@
       <c r="E26" s="27">
         <v>18400</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="64"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -1792,9 +1819,9 @@
       <c r="E27" s="3">
         <v>214000</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="64"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
@@ -1812,9 +1839,9 @@
       <c r="E28" s="16">
         <v>63500</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="65"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
@@ -1832,12 +1859,16 @@
       <c r="E29" s="42">
         <v>87700</v>
       </c>
-      <c r="F29" s="45">
-        <f>E29+E30+E31+E32+E33+E35+E34+E36+E37+E38+E39+E40+E41+E42+E43+E44+E45+E46+E47</f>
-        <v>1806927</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="51"/>
+      <c r="F29" s="54">
+        <f>E29+E30+E31+E32+E33+E34+E35+E36+E37+E38+E39+E40+E41+E42+E43+E44+E45+E46+E47+E48+E49</f>
+        <v>1969627</v>
+      </c>
+      <c r="G29" s="72">
+        <v>44733</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -1855,9 +1886,9 @@
       <c r="E30" s="43">
         <v>54000</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="52"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
@@ -1875,9 +1906,9 @@
       <c r="E31" s="43">
         <v>91950</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="52"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
@@ -1895,9 +1926,9 @@
       <c r="E32" s="43">
         <v>21000</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="52"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -1915,9 +1946,9 @@
       <c r="E33" s="43">
         <v>27500</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="52"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
@@ -1935,9 +1966,9 @@
       <c r="E34" s="44">
         <v>131000</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="52"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
@@ -1955,9 +1986,9 @@
       <c r="E35" s="44">
         <v>137000</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="52"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
@@ -1975,9 +2006,9 @@
       <c r="E36" s="43">
         <v>215777</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="52"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="37">
@@ -1995,9 +2026,9 @@
       <c r="E37" s="43">
         <v>83000</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="52"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
@@ -2015,9 +2046,9 @@
       <c r="E38" s="43">
         <v>67400</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="52"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="37">
@@ -2035,9 +2066,9 @@
       <c r="E39" s="44">
         <v>23000</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="52"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
@@ -2055,9 +2086,9 @@
       <c r="E40" s="44">
         <v>8000</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="52"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
@@ -2075,9 +2106,9 @@
       <c r="E41" s="43">
         <v>77200</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="52"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
@@ -2095,9 +2126,9 @@
       <c r="E42" s="43">
         <v>22500</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="52"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
@@ -2115,9 +2146,9 @@
       <c r="E43" s="43">
         <v>48000</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="52"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
@@ -2135,9 +2166,9 @@
       <c r="E44" s="43">
         <v>116000</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="52"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
@@ -2150,14 +2181,14 @@
         <v>55</v>
       </c>
       <c r="D45" s="39">
-        <v>44779</v>
+        <v>44720</v>
       </c>
       <c r="E45" s="43">
         <v>185500</v>
       </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="52"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
@@ -2175,33 +2206,199 @@
       <c r="E46" s="43">
         <v>113000</v>
       </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="52"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38">
+      <c r="F46" s="55"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="37">
         <v>46</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="75" t="s">
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="76">
+      <c r="D47" s="40">
         <v>44728</v>
       </c>
-      <c r="E47" s="77">
+      <c r="E47" s="44">
         <v>297400</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="53"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="37">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="39">
+        <v>44733</v>
+      </c>
+      <c r="E48" s="43">
+        <v>18000</v>
+      </c>
+      <c r="F48" s="55"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="75">
+        <v>44733</v>
+      </c>
+      <c r="E49" s="76">
+        <v>144700</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="47"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="41">
+        <v>44743</v>
+      </c>
+      <c r="E50" s="42">
+        <v>104250</v>
+      </c>
+      <c r="F50" s="54">
+        <f>E50+E51+E52+E53+E54+E55</f>
+        <v>437825</v>
+      </c>
+      <c r="G50" s="72"/>
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="37">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="39">
+        <v>44658</v>
+      </c>
+      <c r="E51" s="43">
+        <v>62500</v>
+      </c>
+      <c r="F51" s="55"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="61"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="37">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="39">
+        <v>44758</v>
+      </c>
+      <c r="E52" s="43">
+        <v>169775</v>
+      </c>
+      <c r="F52" s="55"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="61"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="37">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="39">
+        <v>44757</v>
+      </c>
+      <c r="E53" s="43">
+        <v>22000</v>
+      </c>
+      <c r="F53" s="55"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="61"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="39">
+        <v>44760</v>
+      </c>
+      <c r="E54" s="43">
+        <v>54000</v>
+      </c>
+      <c r="F54" s="55"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="61"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="75">
+        <v>44760</v>
+      </c>
+      <c r="E55" s="76">
+        <v>25300</v>
+      </c>
+      <c r="F55" s="56"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H29:H47"/>
+  <mergeCells count="17">
+    <mergeCell ref="H29:H49"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="H50:H55"/>
     <mergeCell ref="G2:H7"/>
     <mergeCell ref="F17:F28"/>
     <mergeCell ref="G17:G28"/>
@@ -2213,8 +2410,8 @@
     <mergeCell ref="G8:G12"/>
     <mergeCell ref="F13:F16"/>
     <mergeCell ref="G13:G16"/>
-    <mergeCell ref="F29:F47"/>
-    <mergeCell ref="G29:G47"/>
+    <mergeCell ref="F29:F49"/>
+    <mergeCell ref="G29:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
